--- a/biology/Zoologie/Acanthodactylus_cantoris/Acanthodactylus_cantoris.xlsx
+++ b/biology/Zoologie/Acanthodactylus_cantoris/Acanthodactylus_cantoris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthodactylus cantoris est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthodactylus cantoris est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Jordanie, en Iran, au Pakistan, en Afghanistan et en Inde au Rajasthan, au Pendjab et en Uttar Pradesh[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Jordanie, en Iran, au Pakistan, en Afghanistan et en Inde au Rajasthan, au Pendjab et en Uttar Pradesh.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce lézard atteint environ 7 cm sans la queue. Il est gris-brun clair sur le dessus, avec parfois de petites taches noires. Les jeunes présentent des bandes longitudinales claires séparées par des interstices sombres, et des séries de taches rondes et claires. Ces marques s'estompent progressivement[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce lézard atteint environ 7 cm sans la queue. Il est gris-brun clair sur le dessus, avec parfois de petites taches noires. Les jeunes présentent des bandes longitudinales claires séparées par des interstices sombres, et des séries de taches rondes et claires. Ces marques s'estompent progressivement.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Theodore Edward Cantor[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Theodore Edward Cantor.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1864 : The reptiles of British India, London, Taylor &amp; Francis, p. 1-452 (texte intégral).</t>
         </is>
